--- a/biology/Zoologie/Braque_(chien)/Braque_(chien).xlsx
+++ b/biology/Zoologie/Braque_(chien)/Braque_(chien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le braque, ou chien de type braccoïde, est un type morphologique de chien utilisé comme chien d'arrêt généralement à poil ras et à oreilles pendantes. 
 Plusieurs races de chien sont considérées comme des braques. Les braques font partie de la section 1 du groupe 7 de la Fédération cynologique internationale.
@@ -512,7 +524,9 @@
           <t>Caractéristiques morphologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tête est de forme prismatique avec des oreilles tombantes. Le museau aussi large à l'extrémité qu'à la base avec un front caractérisé par une dépression. Les lèvres sont longues et flottantes et les supérieures dépassent sensiblement la mâchoire inférieure. La queue est le plus souvent écourtée.
 </t>
@@ -543,7 +557,9 @@
           <t>Races de chiens considérées comme des braques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il comprend les races suivantes :
 Braque allemand à poil court
@@ -565,7 +581,7 @@
 Braque slovaque à poil dur
 Chien d'arrêt danois ancestral
 Pudelpointer
-Le brachet est une variété de braque[1] et désigne plusieurs races de chiens du groupe 6 de la FCI (chien courant) :
+Le brachet est une variété de braque et désigne plusieurs races de chiens du groupe 6 de la FCI (chien courant) :
 Le brachet allemand
 Le brachet de Styrie à poil dur
 Le brachet noir et feu
